--- a/biology/Zoologie/Le_Clan_des_suricates___L'aventure_commence/Le_Clan_des_suricates___L'aventure_commence.xlsx
+++ b/biology/Zoologie/Le_Clan_des_suricates___L'aventure_commence/Le_Clan_des_suricates___L'aventure_commence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Clan_des_suricates_:_L%27aventure_commence</t>
+          <t>Le_Clan_des_suricates_:_L'aventure_commence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Clan des suricates : L'aventure commence (Meerkat Manor: The Story Begins) est un film documentaire américano-britannique de Chris Barker et Mike Slee sorti en 2008.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Clan_des_suricates_:_L%27aventure_commence</t>
+          <t>Le_Clan_des_suricates_:_L'aventure_commence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Titre original : Meerkat Manor: The Story Begins
 Titre français : Le Clan des suricates : L'aventure commence
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Clan_des_suricates_:_L%27aventure_commence</t>
+          <t>Le_Clan_des_suricates_:_L'aventure_commence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,10 +574,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Voix originale
-Whoopi Goldberg : narratrice
-Voix française
-Maïk Darah : narratrice</t>
+          <t>Voix originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Whoopi Goldberg : narratrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Le_Clan_des_suricates_:_L'aventure_commence</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Clan_des_suricates_:_L%27aventure_commence</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Voix française</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Maïk Darah : narratrice</t>
         </is>
       </c>
     </row>
